--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.842080666666667</v>
+        <v>1.484391333333334</v>
       </c>
       <c r="H2">
-        <v>5.526242</v>
+        <v>4.453174000000001</v>
       </c>
       <c r="I2">
-        <v>0.1262299803130056</v>
+        <v>0.14812258302985</v>
       </c>
       <c r="J2">
-        <v>0.1502126669235156</v>
+        <v>0.157784627403132</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>201.0534719128338</v>
+        <v>94.21023832448557</v>
       </c>
       <c r="R2">
-        <v>1809.481247215504</v>
+        <v>847.89214492037</v>
       </c>
       <c r="S2">
-        <v>0.044629140834076</v>
+        <v>0.03487543238408681</v>
       </c>
       <c r="T2">
-        <v>0.05491714528838448</v>
+        <v>0.03782357038564487</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.842080666666667</v>
+        <v>1.484391333333334</v>
       </c>
       <c r="H3">
-        <v>5.526242</v>
+        <v>4.453174000000001</v>
       </c>
       <c r="I3">
-        <v>0.1262299803130056</v>
+        <v>0.14812258302985</v>
       </c>
       <c r="J3">
-        <v>0.1502126669235156</v>
+        <v>0.157784627403132</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>88.38455010321667</v>
+        <v>71.22232079618335</v>
       </c>
       <c r="R3">
-        <v>795.46095092895</v>
+        <v>641.0008871656501</v>
       </c>
       <c r="S3">
-        <v>0.01961929081146653</v>
+        <v>0.02636559759683206</v>
       </c>
       <c r="T3">
-        <v>0.02414197145210809</v>
+        <v>0.02859437054372964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.842080666666667</v>
+        <v>1.484391333333334</v>
       </c>
       <c r="H4">
-        <v>5.526242</v>
+        <v>4.453174000000001</v>
       </c>
       <c r="I4">
-        <v>0.1262299803130056</v>
+        <v>0.14812258302985</v>
       </c>
       <c r="J4">
-        <v>0.1502126669235156</v>
+        <v>0.157784627403132</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>114.7016105452133</v>
+        <v>95.79978492946647</v>
       </c>
       <c r="R4">
-        <v>1032.31449490692</v>
+        <v>862.1980643651982</v>
       </c>
       <c r="S4">
-        <v>0.0254610591014166</v>
+        <v>0.03546386232683284</v>
       </c>
       <c r="T4">
-        <v>0.03133039659148053</v>
+        <v>0.03846174229736089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.842080666666667</v>
+        <v>1.484391333333334</v>
       </c>
       <c r="H5">
-        <v>5.526242</v>
+        <v>4.453174000000001</v>
       </c>
       <c r="I5">
-        <v>0.1262299803130056</v>
+        <v>0.14812258302985</v>
       </c>
       <c r="J5">
-        <v>0.1502126669235156</v>
+        <v>0.157784627403132</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>56.19081576143534</v>
+        <v>21.36535434908967</v>
       </c>
       <c r="R5">
-        <v>337.144894568612</v>
+        <v>128.192126094538</v>
       </c>
       <c r="S5">
-        <v>0.01247303916883337</v>
+        <v>0.007909182528520057</v>
       </c>
       <c r="T5">
-        <v>0.0102322337889675</v>
+        <v>0.005718514947060379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.842080666666667</v>
+        <v>1.484391333333334</v>
       </c>
       <c r="H6">
-        <v>5.526242</v>
+        <v>4.453174000000001</v>
       </c>
       <c r="I6">
-        <v>0.1262299803130056</v>
+        <v>0.14812258302985</v>
       </c>
       <c r="J6">
-        <v>0.1502126669235156</v>
+        <v>0.157784627403132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>108.3333289114045</v>
+        <v>117.5310711826509</v>
       </c>
       <c r="R6">
-        <v>974.9999602026401</v>
+        <v>1057.779640643858</v>
       </c>
       <c r="S6">
-        <v>0.02404745039721309</v>
+        <v>0.0435085081935782</v>
       </c>
       <c r="T6">
-        <v>0.02959091980257506</v>
+        <v>0.04718642922933618</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>12.724914</v>
       </c>
       <c r="I7">
-        <v>0.2906614736930972</v>
+        <v>0.4232592596904365</v>
       </c>
       <c r="J7">
-        <v>0.3458848288425265</v>
+        <v>0.4508684848665014</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>462.9526067610186</v>
+        <v>269.2051064248967</v>
       </c>
       <c r="R7">
-        <v>4166.573460849168</v>
+        <v>2422.84595782407</v>
       </c>
       <c r="S7">
-        <v>0.1027645874008966</v>
+        <v>0.09965630756856111</v>
       </c>
       <c r="T7">
-        <v>0.1264540986298099</v>
+        <v>0.1080805915803599</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>12.724914</v>
       </c>
       <c r="I8">
-        <v>0.2906614736930972</v>
+        <v>0.4232592596904365</v>
       </c>
       <c r="J8">
-        <v>0.3458848288425265</v>
+        <v>0.4508684848665014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
         <v>203.51729059135</v>
@@ -948,10 +948,10 @@
         <v>1831.65561532215</v>
       </c>
       <c r="S8">
-        <v>0.04517605061756285</v>
+        <v>0.07533951333998953</v>
       </c>
       <c r="T8">
-        <v>0.05559012987823018</v>
+        <v>0.0817082166681771</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>12.724914</v>
       </c>
       <c r="I9">
-        <v>0.2906614736930972</v>
+        <v>0.4232592596904365</v>
       </c>
       <c r="J9">
-        <v>0.3458848288425265</v>
+        <v>0.4508684848665014</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>264.11585483396</v>
+        <v>273.7472248885754</v>
       </c>
       <c r="R9">
-        <v>2377.04269350564</v>
+        <v>2463.725023997178</v>
       </c>
       <c r="S9">
-        <v>0.05862750625369708</v>
+        <v>0.1013377420726851</v>
       </c>
       <c r="T9">
-        <v>0.07214244367374481</v>
+        <v>0.1099041634178408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>12.724914</v>
       </c>
       <c r="I10">
-        <v>0.2906614736930972</v>
+        <v>0.4232592596904365</v>
       </c>
       <c r="J10">
-        <v>0.3458848288425265</v>
+        <v>0.4508684848665014</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>129.386895860534</v>
+        <v>61.051352736653</v>
       </c>
       <c r="R10">
-        <v>776.321375163204</v>
+        <v>366.308116419918</v>
       </c>
       <c r="S10">
-        <v>0.0287208469592964</v>
+        <v>0.02260043454078377</v>
       </c>
       <c r="T10">
-        <v>0.02356109178579324</v>
+        <v>0.01634061703159542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>12.724914</v>
       </c>
       <c r="I11">
-        <v>0.2906614736930972</v>
+        <v>0.4232592596904365</v>
       </c>
       <c r="J11">
-        <v>0.3458848288425265</v>
+        <v>0.4508684848665014</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>249.4520315489867</v>
+        <v>335.8442255180486</v>
       </c>
       <c r="R11">
-        <v>2245.06828394088</v>
+        <v>3022.598029662438</v>
       </c>
       <c r="S11">
-        <v>0.05537248246164436</v>
+        <v>0.1243252621684169</v>
       </c>
       <c r="T11">
-        <v>0.0681370648749484</v>
+        <v>0.1348348961685281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6198420000000001</v>
+        <v>0.8171586666666667</v>
       </c>
       <c r="H12">
-        <v>1.859526</v>
+        <v>2.451476</v>
       </c>
       <c r="I12">
-        <v>0.04247514502106894</v>
+        <v>0.08154160546066344</v>
       </c>
       <c r="J12">
-        <v>0.05054508283814161</v>
+        <v>0.08686056894424524</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N12">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O12">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P12">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q12">
-        <v>67.65251293956801</v>
+        <v>51.86281474893111</v>
       </c>
       <c r="R12">
-        <v>608.872616456112</v>
+        <v>466.76533274038</v>
       </c>
       <c r="S12">
-        <v>0.01501726629753565</v>
+        <v>0.01919895460613297</v>
       </c>
       <c r="T12">
-        <v>0.01847907846046707</v>
+        <v>0.02082190703411076</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6198420000000001</v>
+        <v>0.8171586666666667</v>
       </c>
       <c r="H13">
-        <v>1.859526</v>
+        <v>2.451476</v>
       </c>
       <c r="I13">
-        <v>0.04247514502106894</v>
+        <v>0.08154160546066344</v>
       </c>
       <c r="J13">
-        <v>0.05054508283814161</v>
+        <v>0.08686056894424524</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P13">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q13">
-        <v>29.74053052965001</v>
+        <v>39.20794698256667</v>
       </c>
       <c r="R13">
-        <v>267.66477476685</v>
+        <v>352.8715228431</v>
       </c>
       <c r="S13">
-        <v>0.006601698109761228</v>
+        <v>0.01451428346035692</v>
       </c>
       <c r="T13">
-        <v>0.008123535597328662</v>
+        <v>0.01574122482594665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6198420000000001</v>
+        <v>0.8171586666666667</v>
       </c>
       <c r="H14">
-        <v>1.859526</v>
+        <v>2.451476</v>
       </c>
       <c r="I14">
-        <v>0.04247514502106894</v>
+        <v>0.08154160546066344</v>
       </c>
       <c r="J14">
-        <v>0.05054508283814161</v>
+        <v>0.08686056894424524</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N14">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O14">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P14">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q14">
-        <v>38.59596214764</v>
+        <v>52.73786148031689</v>
       </c>
       <c r="R14">
-        <v>347.36365932876</v>
+        <v>474.640753322852</v>
       </c>
       <c r="S14">
-        <v>0.008567395598423087</v>
+        <v>0.01952288578024008</v>
       </c>
       <c r="T14">
-        <v>0.01054236985136905</v>
+        <v>0.02117322120361007</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6198420000000001</v>
+        <v>0.8171586666666667</v>
       </c>
       <c r="H15">
-        <v>1.859526</v>
+        <v>2.451476</v>
       </c>
       <c r="I15">
-        <v>0.04247514502106894</v>
+        <v>0.08154160546066344</v>
       </c>
       <c r="J15">
-        <v>0.05054508283814161</v>
+        <v>0.08686056894424524</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N15">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O15">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P15">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q15">
-        <v>18.907656029106</v>
+        <v>11.76164538333533</v>
       </c>
       <c r="R15">
-        <v>113.445936174636</v>
+        <v>70.56987230001199</v>
       </c>
       <c r="S15">
-        <v>0.004197054821968354</v>
+        <v>0.004354011576526368</v>
       </c>
       <c r="T15">
-        <v>0.003443045883380348</v>
+        <v>0.003148047246381971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6198420000000001</v>
+        <v>0.8171586666666667</v>
       </c>
       <c r="H16">
-        <v>1.859526</v>
+        <v>2.451476</v>
       </c>
       <c r="I16">
-        <v>0.04247514502106894</v>
+        <v>0.08154160546066344</v>
       </c>
       <c r="J16">
-        <v>0.05054508283814161</v>
+        <v>0.08686056894424524</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N16">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O16">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P16">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q16">
-        <v>36.45309810488001</v>
+        <v>64.70095268196577</v>
       </c>
       <c r="R16">
-        <v>328.0778829439201</v>
+        <v>582.3085741376919</v>
       </c>
       <c r="S16">
-        <v>0.008091730193380615</v>
+        <v>0.02395147003740709</v>
       </c>
       <c r="T16">
-        <v>0.009957053045596482</v>
+        <v>0.02597616863419578</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.989702</v>
+        <v>1.8409955</v>
       </c>
       <c r="H17">
-        <v>13.979404</v>
+        <v>3.681991</v>
       </c>
       <c r="I17">
-        <v>0.4789746517726381</v>
+        <v>0.1837069529326701</v>
       </c>
       <c r="J17">
-        <v>0.379984003024345</v>
+        <v>0.1304601118296041</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N17">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O17">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P17">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q17">
-        <v>762.8894218183414</v>
+        <v>116.8429247157008</v>
       </c>
       <c r="R17">
-        <v>4577.336530910048</v>
+        <v>701.0575482942049</v>
       </c>
       <c r="S17">
-        <v>0.1693435041097853</v>
+        <v>0.04325376512100677</v>
       </c>
       <c r="T17">
-        <v>0.1389206192043387</v>
+        <v>0.03127343457673357</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.989702</v>
+        <v>1.8409955</v>
       </c>
       <c r="H18">
-        <v>13.979404</v>
+        <v>3.681991</v>
       </c>
       <c r="I18">
-        <v>0.4789746517726381</v>
+        <v>0.1837069529326701</v>
       </c>
       <c r="J18">
-        <v>0.379984003024345</v>
+        <v>0.1304601118296041</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>143.942475</v>
       </c>
       <c r="O18">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P18">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q18">
-        <v>335.37166846415</v>
+        <v>88.3324829112875</v>
       </c>
       <c r="R18">
-        <v>2012.2300107849</v>
+        <v>529.994897467725</v>
       </c>
       <c r="S18">
-        <v>0.07444462053425593</v>
+        <v>0.03269956206331391</v>
       </c>
       <c r="T18">
-        <v>0.0610705018501697</v>
+        <v>0.02364251093549851</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.989702</v>
+        <v>1.8409955</v>
       </c>
       <c r="H19">
-        <v>13.979404</v>
+        <v>3.681991</v>
       </c>
       <c r="I19">
-        <v>0.4789746517726381</v>
+        <v>0.1837069529326701</v>
       </c>
       <c r="J19">
-        <v>0.379984003024345</v>
+        <v>0.1304601118296041</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N19">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O19">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P19">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q19">
-        <v>435.23071010884</v>
+        <v>118.8143375642512</v>
       </c>
       <c r="R19">
-        <v>2611.38426065304</v>
+        <v>712.8860253855071</v>
       </c>
       <c r="S19">
-        <v>0.09661097852208957</v>
+        <v>0.0439835570918532</v>
       </c>
       <c r="T19">
-        <v>0.07925463116391379</v>
+        <v>0.03180109040949267</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.989702</v>
+        <v>1.8409955</v>
       </c>
       <c r="H20">
-        <v>13.979404</v>
+        <v>3.681991</v>
       </c>
       <c r="I20">
-        <v>0.4789746517726381</v>
+        <v>0.1837069529326701</v>
       </c>
       <c r="J20">
-        <v>0.379984003024345</v>
+        <v>0.1304601118296041</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N20">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O20">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P20">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q20">
-        <v>213.213820880086</v>
+        <v>26.49808061345425</v>
       </c>
       <c r="R20">
-        <v>852.8552835203441</v>
+        <v>105.992322453817</v>
       </c>
       <c r="S20">
-        <v>0.04732845222366642</v>
+        <v>0.009809252531127714</v>
       </c>
       <c r="T20">
-        <v>0.02588387007996165</v>
+        <v>0.00472820522360945</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.989702</v>
+        <v>1.8409955</v>
       </c>
       <c r="H21">
-        <v>13.979404</v>
+        <v>3.681991</v>
       </c>
       <c r="I21">
-        <v>0.4789746517726381</v>
+        <v>0.1837069529326701</v>
       </c>
       <c r="J21">
-        <v>0.379984003024345</v>
+        <v>0.1304601118296041</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N21">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O21">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P21">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q21">
-        <v>411.0665181286134</v>
+        <v>145.7662600815328</v>
       </c>
       <c r="R21">
-        <v>2466.39910877168</v>
+        <v>874.597560489197</v>
       </c>
       <c r="S21">
-        <v>0.0912470963828409</v>
+        <v>0.0539608161253685</v>
       </c>
       <c r="T21">
-        <v>0.07485438072596115</v>
+        <v>0.03901487068426986</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8997893333333332</v>
+        <v>1.637187333333333</v>
       </c>
       <c r="H22">
-        <v>2.699368</v>
+        <v>4.911562</v>
       </c>
       <c r="I22">
-        <v>0.06165874920019015</v>
+        <v>0.1633695988863799</v>
       </c>
       <c r="J22">
-        <v>0.07337341837147134</v>
+        <v>0.1740262069565172</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N22">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O22">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P22">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q22">
-        <v>98.20730043497953</v>
+        <v>103.9077805101455</v>
       </c>
       <c r="R22">
-        <v>883.8657039148159</v>
+        <v>935.1700245913099</v>
       </c>
       <c r="S22">
-        <v>0.02179971029770286</v>
+        <v>0.03846533920103956</v>
       </c>
       <c r="T22">
-        <v>0.02682502587523598</v>
+        <v>0.04171694414151764</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8997893333333332</v>
+        <v>1.637187333333333</v>
       </c>
       <c r="H23">
-        <v>2.699368</v>
+        <v>4.911562</v>
       </c>
       <c r="I23">
-        <v>0.06165874920019015</v>
+        <v>0.1633695988863799</v>
       </c>
       <c r="J23">
-        <v>0.07337341837147134</v>
+        <v>0.1740262069565172</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>143.942475</v>
       </c>
       <c r="O23">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P23">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q23">
-        <v>43.17263453953333</v>
+        <v>78.55359893288333</v>
       </c>
       <c r="R23">
-        <v>388.5537108558</v>
+        <v>706.98239039595</v>
       </c>
       <c r="S23">
-        <v>0.009583309199844445</v>
+        <v>0.02907954354891402</v>
       </c>
       <c r="T23">
-        <v>0.01179247401665256</v>
+        <v>0.03153773550651778</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8997893333333332</v>
+        <v>1.637187333333333</v>
       </c>
       <c r="H24">
-        <v>2.699368</v>
+        <v>4.911562</v>
       </c>
       <c r="I24">
-        <v>0.06165874920019015</v>
+        <v>0.1633695988863799</v>
       </c>
       <c r="J24">
-        <v>0.07337341837147134</v>
+        <v>0.1740262069565172</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N24">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O24">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P24">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q24">
-        <v>56.02756033018665</v>
+        <v>105.6609472856305</v>
       </c>
       <c r="R24">
-        <v>504.2480429716799</v>
+        <v>950.9485255706741</v>
       </c>
       <c r="S24">
-        <v>0.01243680030380007</v>
+        <v>0.03911433925054437</v>
       </c>
       <c r="T24">
-        <v>0.01530375795818417</v>
+        <v>0.04242080635553661</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8997893333333332</v>
+        <v>1.637187333333333</v>
       </c>
       <c r="H25">
-        <v>2.699368</v>
+        <v>4.911562</v>
       </c>
       <c r="I25">
-        <v>0.06165874920019015</v>
+        <v>0.1633695988863799</v>
       </c>
       <c r="J25">
-        <v>0.07337341837147134</v>
+        <v>0.1740262069565172</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N25">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O25">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P25">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q25">
-        <v>27.44716752547466</v>
+        <v>23.56459966251567</v>
       </c>
       <c r="R25">
-        <v>164.683005152848</v>
+        <v>141.387597975094</v>
       </c>
       <c r="S25">
-        <v>0.006092625475883138</v>
+        <v>0.008723315181069282</v>
       </c>
       <c r="T25">
-        <v>0.004998073638189862</v>
+        <v>0.006307150969266812</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8997893333333332</v>
+        <v>1.637187333333333</v>
       </c>
       <c r="H26">
-        <v>2.699368</v>
+        <v>4.911562</v>
       </c>
       <c r="I26">
-        <v>0.06165874920019015</v>
+        <v>0.1633695988863799</v>
       </c>
       <c r="J26">
-        <v>0.07337341837147134</v>
+        <v>0.1740262069565172</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N26">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O26">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P26">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q26">
-        <v>52.91688662872888</v>
+        <v>129.6291460966949</v>
       </c>
       <c r="R26">
-        <v>476.25197965856</v>
+        <v>1166.662314870254</v>
       </c>
       <c r="S26">
-        <v>0.01174630392295964</v>
+        <v>0.04798706170481264</v>
       </c>
       <c r="T26">
-        <v>0.01445408688320877</v>
+        <v>0.05204356998367835</v>
       </c>
     </row>
   </sheetData>
